--- a/efficiency/Efficiency.xlsx
+++ b/efficiency/Efficiency.xlsx
@@ -62,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -70,6 +70,9 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -87,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -96,6 +99,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,8 +715,8 @@
       <c r="B20" s="2">
         <v>109.46</v>
       </c>
-      <c r="C20" s="2">
-        <v>15.88</v>
+      <c r="C20" s="3">
+        <v>19.45</v>
       </c>
       <c r="D20" s="2">
         <v>1.93</v>
